--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/200410_영상분석_흥미곡선_vs데스슬링거.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/200410_영상분석_흥미곡선_vs데스슬링거.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\Study\Thesis\DBD 분석\맵 분석\3. 콜드윈드 농장(★)\3. 썩은 들판(★)\영상분석자료\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7845"/>
   </bookViews>
@@ -717,7 +712,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -909,18 +904,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -933,28 +937,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1056,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,7 +1091,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1307,10 +1302,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="N11" sqref="N11"/>
+      <selection pane="topRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1331,18 +1326,18 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1352,19 +1347,19 @@
       <c r="J4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="12"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
       <c r="R4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1374,8 +1369,8 @@
       <c r="T4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
       <c r="W4" s="14"/>
       <c r="X4" s="8" t="s">
         <v>14</v>
@@ -1383,57 +1378,57 @@
       <c r="Y4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="12"/>
+      <c r="AA4" s="17"/>
       <c r="AB4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="AC4" s="14"/>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="12"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="AH4" s="14"/>
-      <c r="AI4" s="11" t="s">
+      <c r="AI4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="12"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="17"/>
       <c r="AL4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="AM4" s="14"/>
-      <c r="AN4" s="11" t="s">
+      <c r="AN4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="12"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="17"/>
       <c r="AW4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="AX4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AY4" s="15" t="s">
+      <c r="AY4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="23" t="s">
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1960,18 +1955,18 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="6" t="s">
         <v>152</v>
       </c>
@@ -1981,21 +1976,21 @@
       <c r="J15" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26" t="s">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="U15" s="26"/>
+      <c r="U15" s="12"/>
       <c r="V15" s="6" t="s">
         <v>156</v>
       </c>
@@ -2008,63 +2003,63 @@
       <c r="Y15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="Z15" s="26" t="s">
+      <c r="Z15" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26" t="s">
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26" t="s">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
       <c r="AG15" s="6" t="s">
         <v>154</v>
       </c>
       <c r="AH15" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="AI15" s="26" t="s">
+      <c r="AI15" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26" t="s">
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AM15" s="26"/>
+      <c r="AM15" s="12"/>
       <c r="AN15" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="AO15" s="26" t="s">
+      <c r="AO15" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="26"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
       <c r="AY15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AZ15" s="26" t="s">
+      <c r="AZ15" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="BA15" s="26"/>
+      <c r="BA15" s="12"/>
       <c r="BB15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="BC15" s="26" t="s">
+      <c r="BC15" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="BD15" s="26"/>
+      <c r="BD15" s="12"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.3">
       <c r="E16" s="6" t="s">
@@ -2087,150 +2082,150 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
@@ -2246,37 +2241,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B37:H39"/>
+    <mergeCell ref="B40:H42"/>
+    <mergeCell ref="B28:H30"/>
+    <mergeCell ref="B31:H33"/>
+    <mergeCell ref="B34:H36"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AO15:AX15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="K15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="AZ15:BA15"/>
     <mergeCell ref="BC15:BD15"/>
     <mergeCell ref="AG4:AH4"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="K15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AI15:AK15"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AO15:AX15"/>
     <mergeCell ref="AY4:BC4"/>
-    <mergeCell ref="B37:H39"/>
-    <mergeCell ref="B40:H42"/>
-    <mergeCell ref="B28:H30"/>
-    <mergeCell ref="B31:H33"/>
-    <mergeCell ref="B34:H36"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AF4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
